--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2771568.189089555</v>
+        <v>2767263.436850742</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8845799.409963176</v>
+        <v>8845799.409963174</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>68.45099403238707</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>43.98786165864763</v>
       </c>
       <c r="W2" t="n">
         <v>187.5255871663201</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>77.97021545617345</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>58.8820973709448</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3956966967182</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663201</v>
+        <v>116.6889117148686</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>115.8383089394349</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>371.1386258983768</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>95.92094869536552</v>
       </c>
       <c r="T6" t="n">
-        <v>72.99228056433745</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>121.5701412899787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>34.54394640562937</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>257.0562554633768</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>273.0996090717867</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719216</v>
+        <v>1.000642874834133</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155184</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.32908379142347</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10.42415796538502</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>119.9747826433679</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>94.64226186542935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.006892987826013</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>181.3074675142875</v>
+        <v>286.1844743892523</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>285.4827669718939</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>238.1282460566153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>52.57516893523027</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8253826161913524</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428527</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>114.6820364666626</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428269</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.3923706291104</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>20.3842717819797</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>28.23631843387909</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659136</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="C2" t="n">
-        <v>400.3029543659136</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659136</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="E2" t="n">
-        <v>400.3029543659136</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="F2" t="n">
-        <v>210.8831693494286</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4330,52 +4330,52 @@
         <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823986</v>
+        <v>578.2426392372658</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823986</v>
+        <v>578.2426392372658</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823986</v>
+        <v>578.2426392372658</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823986</v>
+        <v>533.8104557436824</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659136</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659136</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659136</v>
+        <v>344.3906707271974</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>495.2270892330032</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>320.7740599518762</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518762</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464207</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
         <v>15.00204697330561</v>
@@ -4412,10 +4412,10 @@
         <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140247</v>
@@ -4427,34 +4427,34 @@
         <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="T3" t="n">
-        <v>663.4424262530713</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="U3" t="n">
-        <v>663.4424262530713</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="V3" t="n">
-        <v>663.4424262530713</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="W3" t="n">
-        <v>663.4424262530713</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="X3" t="n">
-        <v>663.4424262530713</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="Y3" t="n">
-        <v>663.4424262530713</v>
+        <v>722.9192922843285</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818521</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818521</v>
+        <v>459.9217274659449</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818521</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818521</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>43.17590452428129</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>216.0634826394164</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830977</v>
+        <v>401.7138139340733</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777546</v>
+        <v>587.3641452287302</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143047</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846281</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846281</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846281</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846281</v>
       </c>
       <c r="U4" t="n">
-        <v>606.9318649576401</v>
+        <v>746.7254979846281</v>
       </c>
       <c r="V4" t="n">
-        <v>417.5120799411552</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0922949246702</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818521</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818521</v>
+        <v>628.8579103938517</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>922.8554628910356</v>
+        <v>938.107293959396</v>
       </c>
       <c r="C5" t="n">
-        <v>922.8554628910356</v>
+        <v>938.107293959396</v>
       </c>
       <c r="D5" t="n">
-        <v>564.5897642842851</v>
+        <v>938.107293959396</v>
       </c>
       <c r="E5" t="n">
-        <v>564.5897642842851</v>
+        <v>552.3190413611517</v>
       </c>
       <c r="F5" t="n">
-        <v>557.6442635350817</v>
+        <v>545.3735406119482</v>
       </c>
       <c r="G5" t="n">
-        <v>440.6358706669656</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4612,7 +4612,7 @@
         <v>1312.994794866847</v>
       </c>
       <c r="Y5" t="n">
-        <v>922.8554628910356</v>
+        <v>938.107293959396</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376.0986417073839</v>
+        <v>516.3541050103923</v>
       </c>
       <c r="C6" t="n">
-        <v>376.0986417073839</v>
+        <v>341.9010757292653</v>
       </c>
       <c r="D6" t="n">
-        <v>227.1642320461326</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>84.69109676367634</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1141890339551</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>415.7050622867858</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>679.6445937822731</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>964.9784642156058</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1203.783415967064</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1621.182402866226</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1589.570705960891</v>
       </c>
       <c r="T6" t="n">
-        <v>1469.580159321379</v>
+        <v>1589.570705960891</v>
       </c>
       <c r="U6" t="n">
-        <v>1241.46374245235</v>
+        <v>1589.570705960891</v>
       </c>
       <c r="V6" t="n">
-        <v>1006.311634220607</v>
+        <v>1354.418597729149</v>
       </c>
       <c r="W6" t="n">
-        <v>752.0742774924058</v>
+        <v>1100.181241000947</v>
       </c>
       <c r="X6" t="n">
-        <v>752.0742774924058</v>
+        <v>892.3297407954142</v>
       </c>
       <c r="Y6" t="n">
-        <v>544.313978727452</v>
+        <v>684.5694420304603</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.3689801046124</v>
+        <v>370.9871663973415</v>
       </c>
       <c r="C7" t="n">
-        <v>630.3689801046124</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="D7" t="n">
-        <v>480.2523406922767</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="E7" t="n">
-        <v>332.3392471098836</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="F7" t="n">
-        <v>185.4492996119732</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G7" t="n">
-        <v>185.4492996119732</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1175.471604442305</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1175.471604442305</v>
+        <v>1170.33354258573</v>
       </c>
       <c r="T7" t="n">
-        <v>1175.471604442305</v>
+        <v>1170.33354258573</v>
       </c>
       <c r="U7" t="n">
-        <v>1175.471604442305</v>
+        <v>881.1969155778322</v>
       </c>
       <c r="V7" t="n">
-        <v>1140.578729285103</v>
+        <v>881.1969155778322</v>
       </c>
       <c r="W7" t="n">
-        <v>851.1615592481426</v>
+        <v>591.7797455408717</v>
       </c>
       <c r="X7" t="n">
-        <v>851.1615592481426</v>
+        <v>591.7797455408717</v>
       </c>
       <c r="Y7" t="n">
-        <v>630.3689801046124</v>
+        <v>370.9871663973415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.314045162418</v>
+        <v>1194.519452847681</v>
       </c>
       <c r="C8" t="n">
-        <v>1178.314045162418</v>
+        <v>825.5569359072697</v>
       </c>
       <c r="D8" t="n">
-        <v>1178.314045162418</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="E8" t="n">
-        <v>1178.314045162418</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="F8" t="n">
-        <v>767.3281403728108</v>
+        <v>56.3053325109117</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3379503491133</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761825</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761825</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872705</v>
+        <v>156.8927045872706</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158994</v>
+        <v>376.2952505158996</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985271</v>
+        <v>685.3852714985276</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556942</v>
+        <v>1060.976912556943</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415487</v>
+        <v>1447.259827415488</v>
       </c>
       <c r="O8" t="n">
         <v>1798.680568975108</v>
@@ -4840,16 +4840,16 @@
         <v>2217.777326380913</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.91913539931</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="W8" t="n">
-        <v>1941.91913539931</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.45337713823</v>
+        <v>1844.311568119833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1178.314045162418</v>
+        <v>1454.172236144022</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.298865693644</v>
+        <v>811.379883113937</v>
       </c>
       <c r="C9" t="n">
-        <v>756.845836412517</v>
+        <v>636.92685383281</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>487.9924441715588</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>328.7549891661033</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>182.2204311929882</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>45.3662969062386</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676153</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761825</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J9" t="n">
         <v>217.3941849412454</v>
       </c>
       <c r="K9" t="n">
-        <v>403.1315611662356</v>
+        <v>639.7656222937654</v>
       </c>
       <c r="L9" t="n">
-        <v>665.3345369959119</v>
+        <v>901.9685981234418</v>
       </c>
       <c r="M9" t="n">
-        <v>990.6699106460173</v>
+        <v>1227.303971773547</v>
       </c>
       <c r="N9" t="n">
-        <v>1339.024588486771</v>
+        <v>1575.658649614301</v>
       </c>
       <c r="O9" t="n">
-        <v>1887.924476766047</v>
+        <v>1872.115328029453</v>
       </c>
       <c r="P9" t="n">
-        <v>2106.524031033375</v>
+        <v>2090.714882296781</v>
       </c>
       <c r="Q9" t="n">
-        <v>2202.732847559019</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="R9" t="n">
         <v>2217.777326380913</v>
       </c>
       <c r="S9" t="n">
-        <v>2173.000474066343</v>
+        <v>2079.218696472979</v>
       </c>
       <c r="T9" t="n">
-        <v>1978.3782616578</v>
+        <v>1884.596484064436</v>
       </c>
       <c r="U9" t="n">
-        <v>1750.278109915941</v>
+        <v>1884.596484064436</v>
       </c>
       <c r="V9" t="n">
-        <v>1515.126001684199</v>
+        <v>1649.444375832693</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.126001684199</v>
+        <v>1395.207019104492</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.274501478666</v>
+        <v>1187.355518898959</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.514202713712</v>
+        <v>979.5952201340051</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>618.9428853542167</v>
+        <v>658.2114099481644</v>
       </c>
       <c r="C10" t="n">
-        <v>618.9428853542167</v>
+        <v>489.2752270202575</v>
       </c>
       <c r="D10" t="n">
-        <v>618.9428853542167</v>
+        <v>339.1585876079217</v>
       </c>
       <c r="E10" t="n">
-        <v>618.9428853542167</v>
+        <v>191.2454940255286</v>
       </c>
       <c r="F10" t="n">
-        <v>472.0529378563064</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="G10" t="n">
-        <v>303.9384347202525</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761825</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692018</v>
+        <v>60.95254262692019</v>
       </c>
       <c r="K10" t="n">
         <v>218.0633423274028</v>
@@ -4986,28 +4986,28 @@
         <v>1505.148182155967</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.80770162002</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="S10" t="n">
-        <v>1386.278249129733</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="T10" t="n">
-        <v>1162.752694971411</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="U10" t="n">
-        <v>873.6273735601036</v>
+        <v>1383.961533021252</v>
       </c>
       <c r="V10" t="n">
-        <v>618.9428853542167</v>
+        <v>1129.277044815365</v>
       </c>
       <c r="W10" t="n">
-        <v>618.9428853542167</v>
+        <v>839.8598747784041</v>
       </c>
       <c r="X10" t="n">
-        <v>618.9428853542167</v>
+        <v>839.8598747784041</v>
       </c>
       <c r="Y10" t="n">
-        <v>618.9428853542167</v>
+        <v>839.8598747784041</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876606</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597537</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597537</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>264.0500279773606</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>1755.431557602295</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1500.747069396409</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359448</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614305</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179004</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.5772922261136</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>815.6411092982067</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>665.524469885871</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>517.6113763034779</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>370.7214288055675</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>94.65038286230657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6259,7 +6259,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,16 +6460,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.917417812168</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812168</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812168</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270479</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782994</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003838</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797781</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.076938957246</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.475473980187</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.400247324385</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.715759118498</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.298589081537</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X34" t="n">
-        <v>983.30903818352</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2421.591387345378</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>256.118667722925</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362678</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>42.56275186471098</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,13 +8148,13 @@
         <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.5660510377764</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>25.90541300402725</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>247.5454807529823</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>25.44093284335656</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>254.9931412768929</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>31.165280362109</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>30.32522655688317</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>142.4141550351052</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>104.8770068749566</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.7017074173502351</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>48.39475227997571</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>112.9489693570386</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>58.20633287440185</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>145.6085800303782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392193862</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>66.34424953498198</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219412</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.6339153725342</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435264</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380343</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442552</v>
-      </c>
-      <c r="F2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442545</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>138712.7919296901</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745756</v>
+        <v>589678.7921745753</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854448</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153561</v>
+        <v>60247.15959153562</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484284</v>
+        <v>33617.87336484288</v>
       </c>
       <c r="M3" t="n">
         <v>154073.8510167275</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.614506921984933e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685508</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249152.4194576313</v>
+        <v>-249152.4194576319</v>
       </c>
       <c r="C6" t="n">
-        <v>133370.3567654516</v>
+        <v>133370.3567654514</v>
       </c>
       <c r="D6" t="n">
-        <v>282093.1034790316</v>
+        <v>282093.1034790313</v>
       </c>
       <c r="E6" t="n">
-        <v>-39122.12933108262</v>
+        <v>-39469.50858543955</v>
       </c>
       <c r="F6" t="n">
-        <v>550556.6628434926</v>
+        <v>550209.2835891361</v>
       </c>
       <c r="G6" t="n">
-        <v>550556.6628434928</v>
+        <v>550209.2835891359</v>
       </c>
       <c r="H6" t="n">
-        <v>550556.662843493</v>
+        <v>550209.2835891359</v>
       </c>
       <c r="I6" t="n">
-        <v>550556.662843493</v>
+        <v>550209.2835891359</v>
       </c>
       <c r="J6" t="n">
-        <v>501491.7181149483</v>
+        <v>501144.338860591</v>
       </c>
       <c r="K6" t="n">
-        <v>490309.5032519574</v>
+        <v>489962.1239976</v>
       </c>
       <c r="L6" t="n">
-        <v>516938.7894786498</v>
+        <v>516591.4102242934</v>
       </c>
       <c r="M6" t="n">
-        <v>396482.8118267651</v>
+        <v>396135.4325724081</v>
       </c>
       <c r="N6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891356</v>
       </c>
       <c r="O6" t="n">
-        <v>550556.6628434928</v>
+        <v>550209.2835891357</v>
       </c>
       <c r="P6" t="n">
-        <v>550556.6628434922</v>
+        <v>550209.2835891357</v>
       </c>
     </row>
   </sheetData>
@@ -26700,34 +26700,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26795,7 +26795,7 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952282</v>
+        <v>554.4443315952283</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26919,26 +26919,26 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3.117460312884351e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>113.7908296814348</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626291</v>
+        <v>504.2037141626289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>132.8291933132464</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044202</v>
+        <v>618.2639565044201</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>132.8291933132464</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044202</v>
+        <v>618.2639565044199</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>132.8291933132464</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044202</v>
+        <v>618.2639565044201</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>344.6468391976709</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.7643968114872</v>
       </c>
       <c r="W2" t="n">
         <v>161.7153815510929</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>88.56296819369389</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>136.5275004210564</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>147.869384796732</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750788</v>
+        <v>135.4487316089594</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271703</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>296.4494297556092</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>15.09931275767678</v>
       </c>
     </row>
     <row r="6">
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>45.79836060878006</v>
       </c>
       <c r="T6" t="n">
-        <v>120.6702547434907</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>78.8773830813228</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>217.5936969181986</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>125.6775862001038</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
         <v>76.6042843978727</v>
@@ -27912,7 +27912,7 @@
         <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>54.65264939834816</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.29116482235803</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155184</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>92.84395981743083</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
-        <v>186.4473496764196</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>166.2592855538267</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28541,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-2.241631118489269e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.205843543681014e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31284,7 +31284,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31363,7 +31363,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31396,7 +31396,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31469,13 +31469,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28.45844197068251</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880153</v>
@@ -34874,7 +34874,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068258</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>51.47665222335132</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35023,19 +35023,19 @@
         <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>421.6151382819818</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>174.7865034481082</v>
       </c>
       <c r="K9" t="n">
-        <v>187.6135113383739</v>
+        <v>426.637815507596</v>
       </c>
       <c r="L9" t="n">
         <v>264.8514907370468</v>
@@ -35266,16 +35266,16 @@
         <v>351.8734119603571</v>
       </c>
       <c r="O9" t="n">
-        <v>554.4443315952282</v>
+        <v>299.4511903183353</v>
       </c>
       <c r="P9" t="n">
         <v>220.807630573059</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1806227531759</v>
+        <v>128.3459031152849</v>
       </c>
       <c r="R9" t="n">
-        <v>15.19644325443765</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295711</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2767263.436850742</v>
+        <v>2769023.967153527</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>175.6809662669684</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>43.98786165864763</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.97021545617345</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>131.2377265816929</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>96.41014564717558</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>116.6889117148686</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>145.422840065538</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>371.1386258983768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>154.2218056955543</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>95.92094869536552</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>113.7788809866538</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>121.5701412899787</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>257.0562554633768</v>
+        <v>257.0562554633692</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8302881234605</v>
+        <v>11.83028812346051</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.000642874834133</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>47.84012920312303</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.2637127827617</v>
       </c>
       <c r="U10" t="n">
-        <v>119.9747826433679</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946306</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>3.006892987826013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892523</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>285.4827669718939</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>14.19454216862647</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>251.056732017987</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>74.4191768313308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428527</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="F40" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.3906707271974</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271974</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271974</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271974</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201478</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372658</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372658</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372658</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="V2" t="n">
-        <v>533.8104557436824</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="W2" t="n">
-        <v>344.3906707271974</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="X2" t="n">
-        <v>344.3906707271974</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="Y2" t="n">
-        <v>344.3906707271974</v>
+        <v>388.8228542207801</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.1614988942544</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843285</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843285</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843285</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843285</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843285</v>
+        <v>590.3559321007994</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843285</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843285</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843285</v>
+        <v>400.9361470843146</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.8579103938517</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="C4" t="n">
         <v>459.9217274659449</v>
@@ -4476,64 +4476,64 @@
         <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428129</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394164</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340733</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287302</v>
+        <v>650.9033495638718</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846281</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846281</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846281</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846281</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846281</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V4" t="n">
-        <v>628.8579103938517</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="W4" t="n">
-        <v>628.8579103938517</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="X4" t="n">
-        <v>628.8579103938517</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="Y4" t="n">
-        <v>628.8579103938517</v>
+        <v>557.3057129681424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.107293959396</v>
+        <v>1312.994794866847</v>
       </c>
       <c r="C5" t="n">
-        <v>938.107293959396</v>
+        <v>944.0322779264357</v>
       </c>
       <c r="D5" t="n">
-        <v>938.107293959396</v>
+        <v>585.7665793196852</v>
       </c>
       <c r="E5" t="n">
-        <v>552.3190413611517</v>
+        <v>199.978326721441</v>
       </c>
       <c r="F5" t="n">
-        <v>545.3735406119482</v>
+        <v>193.0328259722375</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038228</v>
+        <v>180.6209687045161</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4612,7 +4612,7 @@
         <v>1312.994794866847</v>
       </c>
       <c r="Y5" t="n">
-        <v>938.107293959396</v>
+        <v>1312.994794866847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>516.3541050103923</v>
+        <v>189.5088127752397</v>
       </c>
       <c r="C6" t="n">
-        <v>341.9010757292653</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="D6" t="n">
-        <v>192.966666068014</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E6" t="n">
         <v>33.72921106255854</v>
@@ -4646,22 +4646,22 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506383</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>390.0587034127988</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>653.9982349082861</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>939.3321053416189</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1178.137057093077</v>
       </c>
       <c r="P6" t="n">
         <v>1413.205888007736</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1589.570705960891</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1589.570705960891</v>
+        <v>1490.841830594767</v>
       </c>
       <c r="U6" t="n">
-        <v>1589.570705960891</v>
+        <v>1262.725413725739</v>
       </c>
       <c r="V6" t="n">
-        <v>1354.418597729149</v>
+        <v>1027.573305493996</v>
       </c>
       <c r="W6" t="n">
-        <v>1100.181241000947</v>
+        <v>773.3359487657945</v>
       </c>
       <c r="X6" t="n">
-        <v>892.3297407954142</v>
+        <v>565.4844485602616</v>
       </c>
       <c r="Y6" t="n">
-        <v>684.5694420304603</v>
+        <v>357.7241497953077</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.9871663973415</v>
+        <v>782.9219159203693</v>
       </c>
       <c r="C7" t="n">
-        <v>202.0509834694346</v>
+        <v>613.9857329924624</v>
       </c>
       <c r="D7" t="n">
-        <v>202.0509834694346</v>
+        <v>463.8690935801267</v>
       </c>
       <c r="E7" t="n">
-        <v>202.0509834694346</v>
+        <v>463.8690935801267</v>
       </c>
       <c r="F7" t="n">
-        <v>202.0509834694346</v>
+        <v>316.9791460822163</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255854</v>
+        <v>148.6573736753402</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255854</v>
+        <v>148.6573736753402</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1170.33354258573</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1170.33354258573</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>881.1969155778322</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>881.1969155778322</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>591.7797455408717</v>
+        <v>1003.714495063899</v>
       </c>
       <c r="X7" t="n">
-        <v>591.7797455408717</v>
+        <v>1003.714495063899</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.9871663973415</v>
+        <v>782.9219159203693</v>
       </c>
     </row>
     <row r="8">
@@ -4786,70 +4786,70 @@
         <v>825.5569359072697</v>
       </c>
       <c r="D8" t="n">
-        <v>467.2912373005192</v>
+        <v>467.2912373005191</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2912373005192</v>
+        <v>467.2912373005191</v>
       </c>
       <c r="F8" t="n">
-        <v>56.3053325109117</v>
+        <v>56.30533251091155</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872706</v>
+        <v>156.8927045872701</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158996</v>
+        <v>376.2952505158987</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985276</v>
+        <v>685.3852714985255</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556943</v>
+        <v>1060.97691255694</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415488</v>
+        <v>1447.259827415483</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975108</v>
+        <v>1798.680568975103</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631086</v>
+        <v>2064.10904063108</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208125</v>
+        <v>2215.262022208118</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380913</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380913</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380913</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380913</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380913</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.777326380913</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="X8" t="n">
-        <v>1844.311568119833</v>
+        <v>1844.311568119826</v>
       </c>
       <c r="Y8" t="n">
-        <v>1454.172236144022</v>
+        <v>1454.172236144014</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>811.379883113937</v>
+        <v>673.5149984485669</v>
       </c>
       <c r="C9" t="n">
-        <v>636.92685383281</v>
+        <v>499.0619691674399</v>
       </c>
       <c r="D9" t="n">
-        <v>487.9924441715588</v>
+        <v>350.1275595061886</v>
       </c>
       <c r="E9" t="n">
-        <v>328.7549891661033</v>
+        <v>190.8901045007331</v>
       </c>
       <c r="F9" t="n">
-        <v>182.2204311929882</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="G9" t="n">
-        <v>45.3662969062386</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412454</v>
+        <v>92.56405995424021</v>
       </c>
       <c r="K9" t="n">
-        <v>639.7656222937654</v>
+        <v>514.9354973067597</v>
       </c>
       <c r="L9" t="n">
-        <v>901.9685981234418</v>
+        <v>777.1384731364353</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.303971773547</v>
+        <v>1102.47384678654</v>
       </c>
       <c r="N9" t="n">
-        <v>1575.658649614301</v>
+        <v>1450.828524627293</v>
       </c>
       <c r="O9" t="n">
-        <v>1872.115328029453</v>
+        <v>1747.285203042444</v>
       </c>
       <c r="P9" t="n">
-        <v>2090.714882296781</v>
+        <v>1965.884757309771</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380913</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380913</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472979</v>
+        <v>2169.453963549468</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064436</v>
+        <v>1974.831751140924</v>
       </c>
       <c r="U9" t="n">
-        <v>1884.596484064436</v>
+        <v>1746.731599399066</v>
       </c>
       <c r="V9" t="n">
-        <v>1649.444375832693</v>
+        <v>1511.579491167323</v>
       </c>
       <c r="W9" t="n">
-        <v>1395.207019104492</v>
+        <v>1257.342134439122</v>
       </c>
       <c r="X9" t="n">
-        <v>1187.355518898959</v>
+        <v>1049.490634233589</v>
       </c>
       <c r="Y9" t="n">
-        <v>979.5952201340051</v>
+        <v>841.7303354686348</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>658.2114099481644</v>
+        <v>658.2114099481643</v>
       </c>
       <c r="C10" t="n">
-        <v>489.2752270202575</v>
+        <v>489.2752270202574</v>
       </c>
       <c r="D10" t="n">
-        <v>339.1585876079217</v>
+        <v>339.1585876079216</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2454940255286</v>
+        <v>191.2454940255285</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692019</v>
+        <v>60.95254262691984</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274028</v>
+        <v>218.0633423274022</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918433</v>
+        <v>474.6375091918422</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921706</v>
+        <v>755.5481168921691</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1035.213914629316</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546129</v>
+        <v>1277.514248546127</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659239</v>
+        <v>1461.323360659236</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155964</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155964</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155964</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155967</v>
+        <v>1383.669684395599</v>
       </c>
       <c r="U10" t="n">
-        <v>1383.961533021252</v>
+        <v>1094.544362984291</v>
       </c>
       <c r="V10" t="n">
-        <v>1129.277044815365</v>
+        <v>839.859874778404</v>
       </c>
       <c r="W10" t="n">
-        <v>839.8598747784041</v>
+        <v>839.859874778404</v>
       </c>
       <c r="X10" t="n">
-        <v>839.8598747784041</v>
+        <v>839.859874778404</v>
       </c>
       <c r="Y10" t="n">
-        <v>839.8598747784041</v>
+        <v>839.859874778404</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5053,40 +5053,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098246</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876606</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597537</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597537</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>264.0500279773606</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602295</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396409</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359448</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614305</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179004</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2091.550948547922</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342035</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.868421906481</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1469.183933700594</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>951.777212765616</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,16 +6460,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400749</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.917417812168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.917417812168</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.917417812168</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.917417812168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270479</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782994</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003838</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510512</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.38585385471</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648823</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611862</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138447</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703146</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,10 +7183,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7204,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400712</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.624977674364</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471098</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>98.8606518859406</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116058</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>63.37360602116041</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.165280362109</v>
+        <v>157.2563157025154</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688317</v>
+        <v>30.32522655688338</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>114.1584408891648</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4141550351052</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012729</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7017074173502351</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.5151132204107</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>35.12774237125714</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>74.19629618688155</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392193862</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>78.25894333073138</v>
       </c>
       <c r="F40" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>783660.2676708607</v>
+        <v>783660.2676708606</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380343</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778326</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296901</v>
+        <v>138712.7919296881</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745753</v>
+        <v>589678.7921745776</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153562</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484288</v>
+        <v>33617.87336484238</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167275</v>
+        <v>154073.8510167281</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.524429619</v>
+        <v>170385.5244296195</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685495</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26441,16 +26441,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969305</v>
+        <v>86168.04029969289</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249152.4194576319</v>
+        <v>-249152.4194576312</v>
       </c>
       <c r="C6" t="n">
-        <v>133370.3567654514</v>
+        <v>133370.3567654507</v>
       </c>
       <c r="D6" t="n">
-        <v>282093.1034790313</v>
+        <v>282093.1034790331</v>
       </c>
       <c r="E6" t="n">
-        <v>-39469.50858543955</v>
+        <v>-39156.86725652049</v>
       </c>
       <c r="F6" t="n">
-        <v>550209.2835891361</v>
+        <v>550521.9249180574</v>
       </c>
       <c r="G6" t="n">
-        <v>550209.2835891359</v>
+        <v>550521.9249180569</v>
       </c>
       <c r="H6" t="n">
-        <v>550209.2835891359</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="I6" t="n">
-        <v>550209.2835891359</v>
+        <v>550521.924918057</v>
       </c>
       <c r="J6" t="n">
-        <v>501144.338860591</v>
+        <v>501456.9801895125</v>
       </c>
       <c r="K6" t="n">
-        <v>489962.1239976</v>
+        <v>490274.7653265212</v>
       </c>
       <c r="L6" t="n">
-        <v>516591.4102242934</v>
+        <v>516904.0515532147</v>
       </c>
       <c r="M6" t="n">
-        <v>396135.4325724081</v>
+        <v>396448.0739013287</v>
       </c>
       <c r="N6" t="n">
-        <v>550209.2835891356</v>
+        <v>550521.924918057</v>
       </c>
       <c r="O6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="P6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.9249180573</v>
       </c>
     </row>
   </sheetData>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790449</v>
+        <v>863.7717861790433</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952283</v>
+        <v>554.4443315952263</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847052</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814348</v>
+        <v>113.7908296814333</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626289</v>
+        <v>504.2037141626309</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132464</v>
+        <v>132.8291933132446</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044201</v>
+        <v>618.2639565044225</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132464</v>
+        <v>132.8291933132446</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044199</v>
+        <v>618.2639565044225</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132464</v>
+        <v>132.8291933132446</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044201</v>
+        <v>618.2639565044225</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>207.0528753965121</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>283.7643968114872</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.56296819369389</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,16 +27511,16 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>101.5628605677324</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.83667545145225</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>135.4487316089594</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>163.1746053839732</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.09931275767678</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>18.48669329276143</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>45.79836060878006</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>1.000495512832416</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>78.8773830813228</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>125.6775862001038</v>
+        <v>125.6775862001114</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
-        <v>76.6042843978727</v>
+        <v>76.60428439787296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>129.8916290734616</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>93.29116482235803</v>
+        <v>94.29180769719218</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155184</v>
+        <v>25.42862793155196</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>89.33291440573133</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
         <v>108.6085557685652</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>101.0265858339763</v>
       </c>
       <c r="U10" t="n">
-        <v>166.2592855538267</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-4.713429064922078e-13</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28541,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-2.241631118489269e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5.205843543681014e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674549</v>
+        <v>3.472449391674543</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248699</v>
+        <v>35.56222233248693</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725332</v>
+        <v>133.871605172533</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566381</v>
+        <v>294.7198015566375</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062218</v>
+        <v>441.708584306221</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766819</v>
+        <v>547.9785573766809</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458741</v>
+        <v>609.7317292458731</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799695</v>
+        <v>619.5978260799684</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415057</v>
+        <v>585.0686574415047</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845402</v>
+        <v>499.3425630845393</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451952</v>
+        <v>374.9854692451946</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997766</v>
+        <v>218.1262490997762</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278388</v>
+        <v>79.12844051278373</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205535</v>
+        <v>15.20064721205532</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339639</v>
+        <v>0.2777959513339634</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328512</v>
+        <v>1.857924219328508</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930431</v>
+        <v>17.94363653930428</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986324</v>
+        <v>63.96800491986312</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743661</v>
+        <v>175.5330947743658</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693764</v>
+        <v>300.0140174693759</v>
       </c>
       <c r="L9" t="n">
-        <v>403.405870516921</v>
+        <v>403.4058705169202</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675794</v>
+        <v>470.7556234675785</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436904</v>
+        <v>483.2151240436895</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627797</v>
+        <v>442.0474347627788</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873892</v>
+        <v>354.7820379873886</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391974</v>
+        <v>237.162396839197</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070808</v>
+        <v>115.3542774070806</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498351</v>
+        <v>34.51012749498345</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363603</v>
+        <v>7.488738410363589</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347705</v>
+        <v>0.1222318565347703</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765491</v>
+        <v>1.557621253765488</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529683</v>
+        <v>13.8486689652968</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869313</v>
+        <v>46.84191915869305</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412202</v>
+        <v>110.12382264122</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011179</v>
+        <v>180.9672693011175</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552803</v>
+        <v>231.5757998552799</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243486</v>
+        <v>244.1642116243482</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057684</v>
+        <v>238.3585324057679</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231441</v>
+        <v>220.1626841231437</v>
       </c>
       <c r="P10" t="n">
-        <v>188.387210546328</v>
+        <v>188.3872105463276</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130358</v>
+        <v>130.4295397130355</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658286</v>
+        <v>70.03631564658272</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516767</v>
+        <v>27.14509039516762</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543458</v>
+        <v>6.655290811543446</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629958</v>
+        <v>0.08496115929629942</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>726.7533607666135</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068251</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>100.2010091933411</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048465</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35032,7 +35032,7 @@
         <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>237.4432635501599</v>
       </c>
       <c r="Q6" t="n">
         <v>276.0148132527186</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299518</v>
+        <v>113.6738970299513</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612413</v>
+        <v>221.6187332612405</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066947</v>
+        <v>312.2121424066937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186014</v>
+        <v>379.3854960186004</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833786</v>
+        <v>390.1847624833775</v>
       </c>
       <c r="O8" t="n">
-        <v>354.970446019819</v>
+        <v>354.9704460198179</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292706</v>
+        <v>268.1095673292697</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707458</v>
+        <v>152.6797793707451</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644505</v>
+        <v>2.540711285644079</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481082</v>
+        <v>48.6954681076991</v>
       </c>
       <c r="K9" t="n">
-        <v>426.637815507596</v>
+        <v>426.6378155075955</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370468</v>
+        <v>264.851490737046</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455611</v>
+        <v>328.6215895455602</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603571</v>
+        <v>351.8734119603562</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183353</v>
+        <v>299.4511903183344</v>
       </c>
       <c r="P9" t="n">
-        <v>220.807630573059</v>
+        <v>220.8076305730584</v>
       </c>
       <c r="Q9" t="n">
-        <v>128.3459031152849</v>
+        <v>254.4369384556909</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.7646425245474</v>
+        <v>16.7646425245472</v>
       </c>
       <c r="K10" t="n">
-        <v>158.697777475235</v>
+        <v>158.6977774752347</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155965</v>
+        <v>259.165825115596</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861892</v>
+        <v>283.7480885861888</v>
       </c>
       <c r="N10" t="n">
-        <v>282.490704784997</v>
+        <v>282.4907047849965</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371838</v>
+        <v>244.7478120371834</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112215</v>
+        <v>185.6657698112211</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134139</v>
+        <v>44.26749646134114</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>584.6193268445951</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295711</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
